--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2021-10/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2022-20/Laboratorios/Lab 07 - Colisiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243297D7-EAFB-459A-A45B-4EC6085BF850}"/>
+  <xr:revisionPtr revIDLastSave="726" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F54888-DFB5-49D6-8E23-12D138256747}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11273" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="4880" yWindow="887" windowWidth="2273" windowHeight="1493" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
-    <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
+    <sheet name="Graf Mem Vs Tiempo" sheetId="17" r:id="rId2"/>
+    <sheet name="Graf LF Vs Mem" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -55,23 +56,26 @@
     <t>Factor de Carga (CHAINING)</t>
   </si>
   <si>
-    <t>Tiempo de Ejecución [ms]</t>
+    <t>Consumo de Datos [kB]</t>
   </si>
   <si>
-    <t>Carga de Catálogo PROBING</t>
+    <t>Carga de Catálogo PROBING (-large)</t>
   </si>
   <si>
-    <t>Carga de Catálogo CHAINING</t>
+    <t>Carga de Catálogo CHAINING (-large)</t>
   </si>
   <si>
-    <t>Consumo de Datos [kB]</t>
+    <t>Tiempo de Ejecución Real @LP [ms]</t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecución Real @SC [ms]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,24 +92,50 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,11 +143,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -128,14 +178,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -160,109 +237,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -392,6 +367,82 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -426,7 +477,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -439,18 +490,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="es-419" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Comparación de Tiempo</a:t>
+              <a:t>Memoria utilizada Vs Tiempos de </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> y Memoria utilizados en PROBING y CHAINING </a:t>
+              <a:t>Ejecución</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:endParaRPr lang="en-US">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -469,7 +520,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -489,18 +540,18 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carga de Catálogo CHAINING</c:v>
+                  <c:v>Tiempo de Ejecución Real @LP [ms]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -575,57 +626,63 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
+              <c:f>'Datos Lab7'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
+              <c:f>'Datos Lab7'!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E4E-4715-9D75-DA94209629B7}"/>
+              <c16:uniqueId val="{00000001-A503-4D66-A171-A692504BE170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carga de Catálogo CHAINING</c:v>
+                  <c:v>Tiempo de Ejecución Real @SC [ms]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -633,7 +690,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -644,11 +701,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -658,14 +715,13 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -701,44 +757,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
+              <c:f>'Datos Lab7'!$B$11:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>140</c:v>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
+              <c:f>'Datos Lab7'!$C$11:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E4E-4715-9D75-DA94209629B7}"/>
+              <c16:uniqueId val="{00000005-A503-4D66-A171-A692504BE170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,11 +806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="1087686127"/>
+        <c:axId val="1087681551"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="1087686127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,18 +850,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Memoria Utilizada [</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-419" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>kB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>]</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Consumo de Datos [kB]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -876,12 +922,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="1087681551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="1087681551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,14 +967,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo de Ejecución sin medir Datos</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de ejecución [ms]</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -998,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="1087686127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1043,13 +1092,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1059,6 +1101,701 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Factor de Carga Vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Memoria Utilizada</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6366085999994457E-2"/>
+          <c:y val="7.9893674769114381E-2"/>
+          <c:w val="0.88434635977320109"/>
+          <c:h val="0.78659632425853465"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factor de Carga (PROBING)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11507708357000557"/>
+                  <c:y val="-8.8873837694404562E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF3A-447E-BC9B-881B276C6AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factor de Carga (CHAINING)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0576196453195229E-3"/>
+                  <c:y val="-4.363214321918845E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF3A-447E-BC9B-881B276C6AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1086958255"/>
+        <c:axId val="1086959919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1086958255"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Factor de carga (Alpha) [N.A.]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086959919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1086959919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Consumo de Datos [kB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086958255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1117,6 +1854,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1633,11 +2407,501 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAFD5B44-21B9-42C7-B503-C146EF1BA3EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{680E7371-595A-4F03-ABE3-E0257A96E5F2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1654,7 +2918,40 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC27BB9-A0AF-4A08-B094-C0C301BDCA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC983B3-B9E2-99DC-EE8B-D0436D555128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18504E8-A7EA-BD64-3B60-74FDBEF88E11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,24 +2975,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:C6" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)"/>
+    <tableColumn id="5" xr3:uid="{F280BCD9-1105-4F25-860B-4E27D28E75B2}" name="Consumo de Datos [kB]" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tiempo de Ejecución Real @LP [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A10:C14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A10:C14" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{89028F05-533D-401C-8D1A-1C8737D88894}" name="Consumo de Datos [kB]" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tiempo de Ejecución Real @SC [ms]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1998,126 +3295,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1171875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>0.1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="C3" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="2">
+      <c r="A4" s="11">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
+      <c r="B4" s="6">
+        <f>B3+40</f>
+        <v>140</v>
       </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="C4" s="8">
+        <f>C3+10</f>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="2">
+      <c r="A5" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="B5" s="6">
+        <f>B4+40</f>
+        <v>180</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4+10</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12">
         <v>0.9</v>
       </c>
-      <c r="B5" s="2">
-        <v>115</v>
+      <c r="B6" s="6">
+        <f>B5+40</f>
+        <v>220</v>
       </c>
-      <c r="C5" s="2">
-        <v>75</v>
+      <c r="C6" s="8">
+        <f>C5+10</f>
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
-      <c r="C11" s="2">
-        <v>100</v>
+      <c r="C11" s="5">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B11+30</f>
+        <v>130</v>
+      </c>
+      <c r="C12" s="6">
+        <f>C11+20</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
+      <c r="B14" s="2">
+        <f>B12+30</f>
+        <v>160</v>
       </c>
-      <c r="C12" s="2">
-        <v>110</v>
+      <c r="C14" s="6">
+        <f>C12+20</f>
+        <v>145</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="23" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -2128,14 +3453,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7514a57228e1ec4fd10d00283bc8dd1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="581261643acbb38c481ad6091da5c7ed" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a4df9e4b793c0fa050084ef4feafa589">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="067b7080d2289f9ba15465beea7d18a8" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
     <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
     <xsd:element name="properties">
@@ -2156,6 +3475,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2220,11 +3541,18 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2243,12 +3571,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{26816d37-b675-4589-8225-e6a38877c704}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2260,8 +3599,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2350,7 +3689,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2359,7 +3698,45 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF363B8-2236-4100-84F9-92CAF618B773}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2374,16 +3751,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A2C777B-8AD1-4C5B-9C4C-3141524BDA27}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>